--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ncam1-Robo3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ncam1-Robo3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.541588333333333</v>
+        <v>2.721912</v>
       </c>
       <c r="H2">
-        <v>7.624765</v>
+        <v>8.165736000000001</v>
       </c>
       <c r="I2">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="J2">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.367566666666667</v>
+        <v>3.555949666666667</v>
       </c>
       <c r="N2">
-        <v>10.1027</v>
+        <v>10.667849</v>
       </c>
       <c r="O2">
-        <v>0.9944910078726888</v>
+        <v>0.9961127894270114</v>
       </c>
       <c r="P2">
-        <v>0.9944910078726888</v>
+        <v>0.9961127894270114</v>
       </c>
       <c r="Q2">
-        <v>8.558968151722222</v>
+        <v>9.678982069096001</v>
       </c>
       <c r="R2">
-        <v>77.03071336550001</v>
+        <v>87.110838621864</v>
       </c>
       <c r="S2">
-        <v>0.04150742246927216</v>
+        <v>0.03943517781040639</v>
       </c>
       <c r="T2">
-        <v>0.04150742246927216</v>
+        <v>0.0394351778104064</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.541588333333333</v>
+        <v>2.721912</v>
       </c>
       <c r="H3">
-        <v>7.624765</v>
+        <v>8.165736000000001</v>
       </c>
       <c r="I3">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="J3">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,36 +626,36 @@
         <v>0.04163</v>
       </c>
       <c r="O3">
-        <v>0.004097979813093533</v>
+        <v>0.003887210572988658</v>
       </c>
       <c r="P3">
-        <v>0.004097979813093532</v>
+        <v>0.003887210572988658</v>
       </c>
       <c r="Q3">
-        <v>0.03526877410555556</v>
+        <v>0.03777106552</v>
       </c>
       <c r="R3">
-        <v>0.31741896695</v>
+        <v>0.33993958968</v>
       </c>
       <c r="S3">
-        <v>0.000171038830945767</v>
+        <v>0.0001538910470374316</v>
       </c>
       <c r="T3">
-        <v>0.0001710388309457669</v>
+        <v>0.0001538910470374316</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.541588333333333</v>
+        <v>22.91769833333333</v>
       </c>
       <c r="H4">
-        <v>7.624765</v>
+        <v>68.753095</v>
       </c>
       <c r="I4">
-        <v>0.04173735321957359</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="J4">
-        <v>0.04173735321957359</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.004778</v>
+        <v>3.555949666666667</v>
       </c>
       <c r="N4">
-        <v>0.014334</v>
+        <v>10.667849</v>
       </c>
       <c r="O4">
-        <v>0.001411012314217696</v>
+        <v>0.9961127894270114</v>
       </c>
       <c r="P4">
-        <v>0.001411012314217696</v>
+        <v>0.9961127894270114</v>
       </c>
       <c r="Q4">
-        <v>0.01214370905666667</v>
+        <v>81.49418174918389</v>
       </c>
       <c r="R4">
-        <v>0.10929338151</v>
+        <v>733.4476357426551</v>
       </c>
       <c r="S4">
-        <v>5.889191935567196E-05</v>
+        <v>0.3320325964910894</v>
       </c>
       <c r="T4">
-        <v>5.889191935567195E-05</v>
+        <v>0.3320325964910894</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +711,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,134 +732,134 @@
         <v>68.753095</v>
       </c>
       <c r="I5">
-        <v>0.3763489380923739</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="J5">
-        <v>0.3763489380923739</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.367566666666667</v>
+        <v>0.01387666666666667</v>
       </c>
       <c r="N5">
-        <v>10.1027</v>
+        <v>0.04163</v>
       </c>
       <c r="O5">
-        <v>0.9944910078726888</v>
+        <v>0.003887210572988658</v>
       </c>
       <c r="P5">
-        <v>0.9944910078726888</v>
+        <v>0.003887210572988658</v>
       </c>
       <c r="Q5">
-        <v>77.17687698405557</v>
+        <v>0.3180212605388889</v>
       </c>
       <c r="R5">
-        <v>694.5918928565001</v>
+        <v>2.86219134485</v>
       </c>
       <c r="S5">
-        <v>0.3742756347553011</v>
+        <v>0.001295717345823329</v>
       </c>
       <c r="T5">
-        <v>0.3742756347553011</v>
+        <v>0.001295717345823329</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.02880066666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.08640200000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.0004188936217654919</v>
+      </c>
+      <c r="J6">
+        <v>0.0004188936217654919</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>22.91769833333333</v>
-      </c>
-      <c r="H6">
-        <v>68.753095</v>
-      </c>
-      <c r="I6">
-        <v>0.3763489380923739</v>
-      </c>
-      <c r="J6">
-        <v>0.3763489380923739</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01387666666666667</v>
+        <v>3.555949666666667</v>
       </c>
       <c r="N6">
-        <v>0.04163</v>
+        <v>10.667849</v>
       </c>
       <c r="O6">
-        <v>0.004097979813093533</v>
+        <v>0.9961127894270114</v>
       </c>
       <c r="P6">
-        <v>0.004097979813093532</v>
+        <v>0.9961127894270114</v>
       </c>
       <c r="Q6">
-        <v>0.3180212605388889</v>
+        <v>0.1024137210331111</v>
       </c>
       <c r="R6">
-        <v>2.86219134485</v>
+        <v>0.9217234892980001</v>
       </c>
       <c r="S6">
-        <v>0.001542270350981736</v>
+        <v>0.0004172652940500076</v>
       </c>
       <c r="T6">
-        <v>0.001542270350981736</v>
+        <v>0.0004172652940500076</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>22.91769833333333</v>
+        <v>0.02880066666666667</v>
       </c>
       <c r="H7">
-        <v>68.753095</v>
+        <v>0.08640200000000001</v>
       </c>
       <c r="I7">
-        <v>0.3763489380923739</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="J7">
-        <v>0.3763489380923739</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,39 +868,39 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.004778</v>
+        <v>0.01387666666666667</v>
       </c>
       <c r="N7">
-        <v>0.014334</v>
+        <v>0.04163</v>
       </c>
       <c r="O7">
-        <v>0.001411012314217696</v>
+        <v>0.003887210572988658</v>
       </c>
       <c r="P7">
-        <v>0.001411012314217696</v>
+        <v>0.003887210572988658</v>
       </c>
       <c r="Q7">
-        <v>0.1095007626366667</v>
+        <v>0.0003996572511111112</v>
       </c>
       <c r="R7">
-        <v>0.98550686373</v>
+        <v>0.00359691526</v>
       </c>
       <c r="S7">
-        <v>0.0005310329860910931</v>
+        <v>1.628327715484332E-06</v>
       </c>
       <c r="T7">
-        <v>0.000531032986091093</v>
+        <v>1.628327715484332E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -909,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.39544900000001</v>
+        <v>43.03445633333334</v>
       </c>
       <c r="H8">
-        <v>106.186347</v>
+        <v>129.103369</v>
       </c>
       <c r="I8">
-        <v>0.5812555628711455</v>
+        <v>0.6259181248412854</v>
       </c>
       <c r="J8">
-        <v>0.5812555628711454</v>
+        <v>0.6259181248412854</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,39 +930,39 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.367566666666667</v>
+        <v>3.555949666666667</v>
       </c>
       <c r="N8">
-        <v>10.1027</v>
+        <v>10.667849</v>
       </c>
       <c r="O8">
-        <v>0.9944910078726888</v>
+        <v>0.9961127894270114</v>
       </c>
       <c r="P8">
-        <v>0.9944910078726888</v>
+        <v>0.9961127894270114</v>
       </c>
       <c r="Q8">
-        <v>119.1965342041</v>
+        <v>153.0283606536979</v>
       </c>
       <c r="R8">
-        <v>1072.7688078369</v>
+        <v>1377.255245883281</v>
       </c>
       <c r="S8">
-        <v>0.5780534305513326</v>
+        <v>0.6234850492885772</v>
       </c>
       <c r="T8">
-        <v>0.5780534305513325</v>
+        <v>0.6234850492885772</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -971,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>35.39544900000001</v>
+        <v>43.03445633333334</v>
       </c>
       <c r="H9">
-        <v>106.186347</v>
+        <v>129.103369</v>
       </c>
       <c r="I9">
-        <v>0.5812555628711455</v>
+        <v>0.6259181248412854</v>
       </c>
       <c r="J9">
-        <v>0.5812555628711454</v>
+        <v>0.6259181248412854</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,98 +998,98 @@
         <v>0.04163</v>
       </c>
       <c r="O9">
-        <v>0.004097979813093533</v>
+        <v>0.003887210572988658</v>
       </c>
       <c r="P9">
-        <v>0.004097979813093532</v>
+        <v>0.003887210572988658</v>
       </c>
       <c r="Q9">
-        <v>0.4911708472900001</v>
+        <v>0.597174805718889</v>
       </c>
       <c r="R9">
-        <v>4.420537625610001</v>
+        <v>5.374573251470001</v>
       </c>
       <c r="S9">
-        <v>0.002381973562894274</v>
+        <v>0.00243307555270828</v>
       </c>
       <c r="T9">
-        <v>0.002381973562894273</v>
+        <v>0.00243307555270828</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.051263</v>
+      </c>
+      <c r="H10">
+        <v>0.153789</v>
+      </c>
+      <c r="I10">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="J10">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="K10">
         <v>3</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>35.39544900000001</v>
-      </c>
-      <c r="H10">
-        <v>106.186347</v>
-      </c>
-      <c r="I10">
-        <v>0.5812555628711455</v>
-      </c>
-      <c r="J10">
-        <v>0.5812555628711454</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.004778</v>
+        <v>3.555949666666667</v>
       </c>
       <c r="N10">
-        <v>0.014334</v>
+        <v>10.667849</v>
       </c>
       <c r="O10">
-        <v>0.001411012314217696</v>
+        <v>0.9961127894270114</v>
       </c>
       <c r="P10">
-        <v>0.001411012314217696</v>
+        <v>0.9961127894270114</v>
       </c>
       <c r="Q10">
-        <v>0.169119455322</v>
+        <v>0.1822886477623334</v>
       </c>
       <c r="R10">
-        <v>1.522075097898</v>
+        <v>1.640597829861</v>
       </c>
       <c r="S10">
-        <v>0.0008201587569187248</v>
+        <v>0.0007427005428885514</v>
       </c>
       <c r="T10">
-        <v>0.0008201587569187246</v>
+        <v>0.0007427005428885514</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1095,170 +1098,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.04007766666666666</v>
+        <v>0.051263</v>
       </c>
       <c r="H11">
-        <v>0.120233</v>
+        <v>0.153789</v>
       </c>
       <c r="I11">
-        <v>0.0006581458169070118</v>
+        <v>0.0007455988425926857</v>
       </c>
       <c r="J11">
-        <v>0.0006581458169070117</v>
+        <v>0.0007455988425926857</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>3.367566666666667</v>
+        <v>0.01387666666666667</v>
       </c>
       <c r="N11">
-        <v>10.1027</v>
+        <v>0.04163</v>
       </c>
       <c r="O11">
-        <v>0.9944910078726888</v>
+        <v>0.003887210572988658</v>
       </c>
       <c r="P11">
-        <v>0.9944910078726888</v>
+        <v>0.003887210572988658</v>
       </c>
       <c r="Q11">
-        <v>0.1349642143444444</v>
+        <v>0.0007113595633333334</v>
       </c>
       <c r="R11">
-        <v>1.2146779291</v>
+        <v>0.00640223607</v>
       </c>
       <c r="S11">
-        <v>0.0006545200967830483</v>
+        <v>2.898299704134394E-06</v>
       </c>
       <c r="T11">
-        <v>0.0006545200967830482</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.04007766666666666</v>
-      </c>
-      <c r="H12">
-        <v>0.120233</v>
-      </c>
-      <c r="I12">
-        <v>0.0006581458169070118</v>
-      </c>
-      <c r="J12">
-        <v>0.0006581458169070117</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.01387666666666667</v>
-      </c>
-      <c r="N12">
-        <v>0.04163</v>
-      </c>
-      <c r="O12">
-        <v>0.004097979813093533</v>
-      </c>
-      <c r="P12">
-        <v>0.004097979813093532</v>
-      </c>
-      <c r="Q12">
-        <v>0.0005561444211111111</v>
-      </c>
-      <c r="R12">
-        <v>0.00500529979</v>
-      </c>
-      <c r="S12">
-        <v>2.697068271756887E-06</v>
-      </c>
-      <c r="T12">
-        <v>2.697068271756886E-06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.04007766666666666</v>
-      </c>
-      <c r="H13">
-        <v>0.120233</v>
-      </c>
-      <c r="I13">
-        <v>0.0006581458169070118</v>
-      </c>
-      <c r="J13">
-        <v>0.0006581458169070117</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.004778</v>
-      </c>
-      <c r="N13">
-        <v>0.014334</v>
-      </c>
-      <c r="O13">
-        <v>0.001411012314217696</v>
-      </c>
-      <c r="P13">
-        <v>0.001411012314217696</v>
-      </c>
-      <c r="Q13">
-        <v>0.0001914910913333333</v>
-      </c>
-      <c r="R13">
-        <v>0.001723419822</v>
-      </c>
-      <c r="S13">
-        <v>9.286518522066591E-07</v>
-      </c>
-      <c r="T13">
-        <v>9.286518522066588E-07</v>
+        <v>2.898299704134394E-06</v>
       </c>
     </row>
   </sheetData>
